--- a/ids_2.xlsx
+++ b/ids_2.xlsx
@@ -6696,58 +6696,58 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>3844</v>
+        <v>7609</v>
       </c>
       <c r="C363">
-        <v>1069</v>
+        <v>1255</v>
       </c>
       <c r="D363">
-        <v>2674</v>
+        <v>3641</v>
       </c>
       <c r="E363">
-        <v>1013</v>
+        <v>1199</v>
       </c>
       <c r="F363">
-        <v>1287</v>
+        <v>1910</v>
       </c>
       <c r="G363">
-        <v>1014</v>
+        <v>1200</v>
       </c>
       <c r="H363">
-        <v>1293</v>
+        <v>1916</v>
       </c>
       <c r="I363">
-        <v>1018</v>
+        <v>1204</v>
       </c>
       <c r="J363">
-        <v>1298</v>
+        <v>1921</v>
       </c>
       <c r="K363">
-        <v>1075</v>
+        <v>1261</v>
       </c>
       <c r="L363">
-        <v>2685</v>
+        <v>3652</v>
       </c>
       <c r="M363">
-        <v>1020</v>
+        <v>1206</v>
       </c>
       <c r="N363">
-        <v>2014</v>
+        <v>2892</v>
       </c>
       <c r="O363">
-        <v>2688</v>
+        <v>3655</v>
       </c>
       <c r="P363">
-        <v>1029</v>
+        <v>1215</v>
       </c>
       <c r="Q363">
-        <v>2015</v>
+        <v>2893</v>
       </c>
       <c r="R363">
-        <v>2692</v>
+        <v>3659</v>
       </c>
       <c r="S363">
-        <v>1108</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="364" spans="1:19">
@@ -6755,46 +6755,46 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>3845</v>
+        <v>7610</v>
       </c>
       <c r="C364">
-        <v>1070</v>
+        <v>1256</v>
       </c>
       <c r="D364">
-        <v>2675</v>
+        <v>3642</v>
       </c>
       <c r="E364">
-        <v>1071</v>
+        <v>1257</v>
       </c>
       <c r="F364">
-        <v>2678</v>
+        <v>3645</v>
       </c>
       <c r="G364">
-        <v>1015</v>
+        <v>1201</v>
       </c>
       <c r="H364">
-        <v>1297</v>
+        <v>1920</v>
       </c>
       <c r="I364">
-        <v>1019</v>
+        <v>1205</v>
       </c>
       <c r="J364">
-        <v>1301</v>
+        <v>1924</v>
       </c>
       <c r="K364">
-        <v>1021</v>
+        <v>1207</v>
       </c>
       <c r="L364">
-        <v>2026</v>
+        <v>2904</v>
       </c>
       <c r="M364">
-        <v>3853</v>
+        <v>7618</v>
       </c>
       <c r="N364">
-        <v>1027</v>
+        <v>1213</v>
       </c>
       <c r="O364">
-        <v>2027</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="365" spans="1:19">
@@ -6802,31 +6802,31 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>3847</v>
+        <v>7612</v>
       </c>
       <c r="C365">
-        <v>1072</v>
+        <v>1258</v>
       </c>
       <c r="D365">
-        <v>2679</v>
+        <v>3646</v>
       </c>
       <c r="E365">
-        <v>1074</v>
+        <v>1260</v>
       </c>
       <c r="F365">
-        <v>2683</v>
+        <v>3650</v>
       </c>
       <c r="G365">
-        <v>1076</v>
+        <v>1262</v>
       </c>
       <c r="H365">
-        <v>2686</v>
+        <v>3653</v>
       </c>
       <c r="I365">
-        <v>1078</v>
+        <v>1264</v>
       </c>
       <c r="J365">
-        <v>3842</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="366" spans="1:19">
@@ -6834,10 +6834,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>3855</v>
+        <v>7620</v>
       </c>
       <c r="C366">
-        <v>1109</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="367" spans="1:19">
@@ -6845,10 +6845,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>3879</v>
+        <v>7644</v>
       </c>
       <c r="C367">
-        <v>3843</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="368" spans="1:19">
@@ -6856,13 +6856,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>1067</v>
+        <v>1253</v>
       </c>
       <c r="C368">
-        <v>2668</v>
+        <v>3635</v>
       </c>
       <c r="D368">
-        <v>205</v>
+        <v>348</v>
       </c>
     </row>
     <row r="369" spans="1:13">
@@ -6870,19 +6870,19 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>1309</v>
+        <v>1933</v>
       </c>
       <c r="C369">
-        <v>1043</v>
+        <v>1229</v>
       </c>
       <c r="D369">
-        <v>1316</v>
+        <v>1940</v>
       </c>
       <c r="E369">
-        <v>1046</v>
+        <v>1232</v>
       </c>
       <c r="F369">
-        <v>1778</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -6890,40 +6890,40 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>2676</v>
+        <v>3643</v>
       </c>
       <c r="C370">
-        <v>1073</v>
+        <v>1259</v>
       </c>
       <c r="D370">
-        <v>2723</v>
+        <v>3690</v>
       </c>
       <c r="E370">
-        <v>1299</v>
+        <v>1922</v>
       </c>
       <c r="F370">
-        <v>1077</v>
+        <v>1263</v>
       </c>
       <c r="G370">
-        <v>2687</v>
+        <v>3654</v>
       </c>
       <c r="H370">
-        <v>1022</v>
+        <v>1208</v>
       </c>
       <c r="I370">
-        <v>1303</v>
+        <v>1926</v>
       </c>
       <c r="J370">
-        <v>1082</v>
+        <v>1268</v>
       </c>
       <c r="K370">
-        <v>2736</v>
+        <v>3703</v>
       </c>
       <c r="L370">
-        <v>2016</v>
+        <v>2894</v>
       </c>
       <c r="M370">
-        <v>2765</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="371" spans="1:13">
@@ -6931,25 +6931,25 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>2013</v>
+        <v>2891</v>
       </c>
       <c r="C371">
-        <v>2726</v>
+        <v>3693</v>
       </c>
       <c r="D371">
-        <v>1302</v>
+        <v>1925</v>
       </c>
       <c r="E371">
-        <v>1023</v>
+        <v>1209</v>
       </c>
       <c r="F371">
-        <v>1304</v>
+        <v>1927</v>
       </c>
       <c r="G371">
-        <v>1032</v>
+        <v>1218</v>
       </c>
       <c r="H371">
-        <v>1775</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="372" spans="1:13">
@@ -6957,13 +6957,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>1024</v>
+        <v>1210</v>
       </c>
       <c r="C372">
-        <v>1305</v>
+        <v>1928</v>
       </c>
       <c r="D372">
-        <v>210</v>
+        <v>359</v>
       </c>
     </row>
     <row r="373" spans="1:13">
@@ -6971,40 +6971,40 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>2677</v>
+        <v>3644</v>
       </c>
       <c r="C373">
-        <v>1016</v>
+        <v>1202</v>
       </c>
       <c r="D373">
-        <v>2010</v>
+        <v>2888</v>
       </c>
       <c r="E373">
-        <v>2684</v>
+        <v>3651</v>
       </c>
       <c r="F373">
-        <v>1107</v>
+        <v>1293</v>
       </c>
       <c r="G373">
-        <v>3850</v>
+        <v>7615</v>
       </c>
       <c r="H373">
-        <v>1025</v>
+        <v>1211</v>
       </c>
       <c r="I373">
-        <v>1306</v>
+        <v>1929</v>
       </c>
       <c r="J373">
-        <v>1083</v>
+        <v>1269</v>
       </c>
       <c r="K373">
-        <v>2737</v>
+        <v>3705</v>
       </c>
       <c r="L373">
-        <v>2017</v>
+        <v>2895</v>
       </c>
       <c r="M373">
-        <v>2766</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="374" spans="1:13">
@@ -7012,22 +7012,22 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>2702</v>
+        <v>3669</v>
       </c>
       <c r="C374">
-        <v>1050</v>
+        <v>1236</v>
       </c>
       <c r="D374">
-        <v>1321</v>
+        <v>1945</v>
       </c>
       <c r="E374">
-        <v>1055</v>
+        <v>1241</v>
       </c>
       <c r="F374">
-        <v>2021</v>
+        <v>2899</v>
       </c>
       <c r="G374">
-        <v>3183</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="375" spans="1:13">
@@ -7035,13 +7035,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>2703</v>
+        <v>3670</v>
       </c>
       <c r="C375">
-        <v>1098</v>
+        <v>1284</v>
       </c>
       <c r="D375">
-        <v>3688</v>
+        <v>6908</v>
       </c>
     </row>
     <row r="376" spans="1:13">
@@ -7049,19 +7049,19 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>2720</v>
+        <v>3687</v>
       </c>
       <c r="C376">
-        <v>1290</v>
+        <v>1913</v>
       </c>
       <c r="D376">
-        <v>1017</v>
+        <v>1203</v>
       </c>
       <c r="E376">
-        <v>2011</v>
+        <v>2889</v>
       </c>
       <c r="F376">
-        <v>2759</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="377" spans="1:13">
@@ -7069,19 +7069,19 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>2729</v>
+        <v>3696</v>
       </c>
       <c r="C377">
-        <v>1307</v>
+        <v>1930</v>
       </c>
       <c r="D377">
-        <v>1035</v>
+        <v>1221</v>
       </c>
       <c r="E377">
-        <v>2018</v>
+        <v>2896</v>
       </c>
       <c r="F377">
-        <v>2781</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="378" spans="1:13">
@@ -7089,16 +7089,16 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>2730</v>
+        <v>3697</v>
       </c>
       <c r="C378">
-        <v>1308</v>
+        <v>1931</v>
       </c>
       <c r="D378">
-        <v>1084</v>
+        <v>1270</v>
       </c>
       <c r="E378">
-        <v>2764</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="379" spans="1:13">
@@ -7106,13 +7106,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>2741</v>
+        <v>3709</v>
       </c>
       <c r="C379">
-        <v>2019</v>
+        <v>2897</v>
       </c>
       <c r="D379">
-        <v>3040</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="380" spans="1:13">
@@ -7120,13 +7120,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>2750</v>
+        <v>3718</v>
       </c>
       <c r="C380">
-        <v>2024</v>
+        <v>2902</v>
       </c>
       <c r="D380">
-        <v>2995</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="381" spans="1:13">
@@ -7134,13 +7134,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>2751</v>
+        <v>3719</v>
       </c>
       <c r="C381">
-        <v>2025</v>
+        <v>2903</v>
       </c>
       <c r="D381">
-        <v>2996</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="382" spans="1:13">
@@ -7148,16 +7148,16 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>2752</v>
+        <v>3720</v>
       </c>
       <c r="C382">
-        <v>2029</v>
+        <v>2907</v>
       </c>
       <c r="D382">
-        <v>3882</v>
+        <v>7647</v>
       </c>
       <c r="E382">
-        <v>3005</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="383" spans="1:13">
@@ -7165,25 +7165,25 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>1079</v>
+        <v>1265</v>
       </c>
       <c r="C383">
-        <v>2689</v>
+        <v>3656</v>
       </c>
       <c r="D383">
-        <v>1086</v>
+        <v>1272</v>
       </c>
       <c r="E383">
-        <v>2693</v>
+        <v>3660</v>
       </c>
       <c r="F383">
-        <v>1094</v>
+        <v>1280</v>
       </c>
       <c r="G383">
-        <v>2694</v>
+        <v>3661</v>
       </c>
       <c r="H383">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="384" spans="1:13">
@@ -7191,13 +7191,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>2012</v>
+        <v>2890</v>
       </c>
       <c r="C384">
-        <v>2724</v>
+        <v>3691</v>
       </c>
       <c r="D384">
-        <v>1762</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7205,13 +7205,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>2690</v>
+        <v>3657</v>
       </c>
       <c r="C385">
-        <v>1085</v>
+        <v>1271</v>
       </c>
       <c r="D385">
-        <v>2780</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7219,13 +7219,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>2691</v>
+        <v>3658</v>
       </c>
       <c r="C386">
-        <v>1087</v>
+        <v>1273</v>
       </c>
       <c r="D386">
-        <v>2868</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7233,13 +7233,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>2705</v>
+        <v>3672</v>
       </c>
       <c r="C387">
-        <v>1099</v>
+        <v>1285</v>
       </c>
       <c r="D387">
-        <v>3689</v>
+        <v>6910</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7247,13 +7247,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>2710</v>
+        <v>3677</v>
       </c>
       <c r="C388">
-        <v>1103</v>
+        <v>1289</v>
       </c>
       <c r="D388">
-        <v>2997</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7261,13 +7261,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>2711</v>
+        <v>3678</v>
       </c>
       <c r="C389">
-        <v>1104</v>
+        <v>1290</v>
       </c>
       <c r="D389">
-        <v>2998</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7275,13 +7275,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>2722</v>
+        <v>3689</v>
       </c>
       <c r="C390">
-        <v>2008</v>
+        <v>2886</v>
       </c>
       <c r="D390">
-        <v>2757</v>
+        <v>3732</v>
       </c>
     </row>
   </sheetData>
